--- a/Document/패킷정의1.2.xlsx
+++ b/Document/패킷정의1.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimwell\Documents\카카오톡 받은 파일\카카오~1 (1)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimwell\Documents\ProjectSkillBuyDefence\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -81,10 +81,6 @@
 스킬 타겟 유닛 주인/유닛아이디</t>
   </si>
   <si>
-    <t>byte/byte/string/
-(float/float/float)/byte</t>
-  </si>
-  <si>
     <t>byte + 
 byte/byte.byte
 .string.string</t>
@@ -223,9 +219,6 @@
     <t>총갯수+
 방번호/맵종류/방데이터길이
 호스트아이디.방제목</t>
-  </si>
-  <si>
-    <t>byte/byte/(float/float/float)</t>
   </si>
   <si>
     <t>성공 : 1~20
@@ -422,6 +415,55 @@
         <charset val="129"/>
       </rPr>
       <t>tring</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>byte/byte/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>/
+(float/float/float)/byte</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>byte/byte/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>byte/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>(float/float/float)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -506,75 +548,81 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,191 +908,191 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15"/>
@@ -1121,158 +1169,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>39</v>
+      <c r="D8" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>39</v>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>39</v>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1287,8 +1335,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1302,360 +1350,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="A1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Document/패킷정의1.2.xlsx
+++ b/Document/패킷정의1.2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="12090" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="12090" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="클라 To 서버" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="116">
   <si>
     <t>스킬과 데미지는 받은애가 알아서
 계산합니다
@@ -42,14 +42,6 @@
   <si>
     <t>유닛 레벨업 메소드를 받은
  클라이언트가 스텟을 계산합니다</t>
-  </si>
-  <si>
-    <t>유닛주인/유닛아이디/이동종류/유닛위치</t>
-  </si>
-  <si>
-    <t>byte/byte
-/byte/(float/float/float)
-byte/byte</t>
   </si>
   <si>
     <t>아이디</t>
@@ -76,11 +68,6 @@
  데미지는 받은 애가 알아서 계산합니다</t>
   </si>
   <si>
-    <t>유닛주인/유닛아이디/
-스킬종류/스킬사용위치/
-스킬 타겟 유닛 주인/유닛아이디</t>
-  </si>
-  <si>
     <t>byte + 
 byte/byte.byte
 .string.string</t>
@@ -156,9 +143,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>유닛홀드,스탑</t>
-  </si>
-  <si>
     <t>방입장결과</t>
   </si>
   <si>
@@ -211,9 +195,6 @@
   </si>
   <si>
     <t>byte/byte</t>
-  </si>
-  <si>
-    <t>유닛이동/어택무브</t>
   </si>
   <si>
     <t>총갯수+
@@ -419,6 +400,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>유닛스탑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛즉시이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte/int/int/
+(float/float/float)/byte</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>byte/byte/</t>
     </r>
@@ -430,22 +424,46 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>int</t>
+      <t>(float/float/float)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛주인/유닛아이디/유닛위치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>유닛주인/유닛아이디/
+스킬종류/스킬레벨</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
-      <t>/
-(float/float/float)/byte</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>byte/byte/</t>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스킬사용위치/
+스킬 타겟 유닛 주인/유닛아이디</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>byte/byte
+/byte/</t>
     </r>
     <r>
       <rPr>
@@ -462,8 +480,111 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
-      <t>(float/float/float)</t>
+      <t>(float/float/float)
+byte/byte</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛피해</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛죽음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인/유닛아이디/데미지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인/유닛아이디</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>yte/byte/int</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>yte/byte</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛목적지설정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛타겟설정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛주인/유닛아이디/타겟주인/타겟아이디</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>yte/byte/byte/byte</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당지점으로 즉시이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표유닛설정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>스탑,홀드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 시</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -508,7 +629,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -542,13 +663,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -597,9 +727,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -615,13 +742,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -917,19 +1056,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -937,16 +1076,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -954,16 +1093,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -971,13 +1110,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -986,12 +1125,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -999,13 +1138,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -1014,13 +1153,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -1029,13 +1168,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -1044,13 +1183,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -1059,13 +1198,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -1074,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1170,19 +1309,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1192,13 +1331,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1206,13 +1345,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1220,13 +1359,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -1235,16 +1374,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1252,16 +1391,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1269,16 +1408,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1286,13 +1425,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1300,13 +1439,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1314,13 +1453,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1335,8 +1474,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1350,301 +1489,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="A1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>85</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>89</v>
+      <c r="E4" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>78</v>
+      <c r="B5" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="18" t="s">
-        <v>90</v>
+      <c r="F5" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>75</v>
+      <c r="B6" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="18" t="s">
-        <v>92</v>
+      <c r="F6" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>74</v>
+      <c r="B7" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="18" t="s">
-        <v>96</v>
+      <c r="F7" s="17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>71</v>
+      <c r="B8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="18" t="s">
-        <v>91</v>
+      <c r="F8" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>70</v>
+      <c r="B9" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="18" t="s">
-        <v>95</v>
+      <c r="F9" s="17" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>69</v>
+      <c r="B10" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="18" t="s">
-        <v>94</v>
+      <c r="F10" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>98</v>
+      <c r="B11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="18" t="s">
-        <v>93</v>
+      <c r="F11" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>67</v>
+      <c r="B12" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="18" t="s">
-        <v>94</v>
+      <c r="F12" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>66</v>
+      <c r="B13" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="4"/>
+      <c r="F13" s="17" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
@@ -1718,14 +1769,199 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/패킷정의1.2.xlsx
+++ b/Document/패킷정의1.2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="122">
   <si>
     <t>스킬과 데미지는 받은애가 알아서
 계산합니다
@@ -34,10 +34,6 @@
   </si>
   <si>
     <t>navmesh destination을 보내줍니다</t>
-  </si>
-  <si>
-    <t>유닛주인/유닛아이디/유닛종류/
-유닛위치/레벨</t>
   </si>
   <si>
     <t>유닛 레벨업 메소드를 받은
@@ -588,12 +584,41 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>유닛 위치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛주인/유닛아이디/유닛종류/
+유닛위치/레벨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛주인/유닛아이디/유닛위치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛주인/유닛아이디/유닛위치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재위치를 보내줍니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte/byte/(float/float/float)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -617,6 +642,14 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -678,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -757,10 +790,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1056,19 +1095,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1076,16 +1115,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1093,16 +1132,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1110,13 +1149,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -1125,12 +1164,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1138,13 +1177,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -1153,13 +1192,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -1168,13 +1207,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -1183,13 +1222,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -1198,13 +1237,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -1213,7 +1252,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1309,19 +1348,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1331,13 +1370,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1345,13 +1384,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1359,13 +1398,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -1374,16 +1413,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1391,16 +1430,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1408,16 +1447,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1425,13 +1464,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1439,13 +1478,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1453,13 +1492,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1514,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1489,32 +1528,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="A1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1522,17 +1561,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -1540,19 +1579,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1560,17 +1599,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1578,17 +1617,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1596,13 +1635,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1610,17 +1649,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1628,13 +1667,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1642,13 +1681,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1656,17 +1695,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1674,13 +1713,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1688,13 +1727,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1769,10 +1808,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1786,174 +1825,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="A1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>116</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>2</v>
+      <c r="A4" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>114</v>
+      <c r="B5" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="D7" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="E10" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>107</v>
+      <c r="E11" s="14" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="D12" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>108</v>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Document/패킷정의1.2.xlsx
+++ b/Document/패킷정의1.2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimwell\Documents\ProjectSkillBuyDefence\Document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="12090" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="클라 To 서버" sheetId="1" r:id="rId1"/>
@@ -617,7 +612,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -662,7 +657,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -685,33 +680,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,15 +703,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -757,50 +723,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,7 +819,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="21474836470000000000"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -897,7 +854,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="21474836470000000000"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1080,8 +1037,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1094,169 +1051,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12"/>
@@ -1333,7 +1290,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1347,159 +1304,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="18" t="s">
         <v>34</v>
       </c>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="E10" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1514,7 +1476,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1528,36 +1490,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -1569,33 +1532,33 @@
       <c r="D3" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="20" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -1607,13 +1570,13 @@
       <c r="D5" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -1625,27 +1588,27 @@
       <c r="D6" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="20" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="17" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="20" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -1657,41 +1620,41 @@
       <c r="D8" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="18">
         <v>7</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="17" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="17" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="20" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="18">
         <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -1703,66 +1666,66 @@
       <c r="D11" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="20" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="18">
         <v>10</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="17" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="20" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="18">
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="17" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="8"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="8"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
@@ -1810,8 +1773,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1825,83 +1788,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>13</v>
       </c>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="17" t="s">
         <v>119</v>
       </c>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="19" t="s">
         <v>109</v>
       </c>
@@ -1914,102 +1881,115 @@
       <c r="E6" s="19" t="s">
         <v>113</v>
       </c>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>0</v>
       </c>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="11" t="s">
         <v>114</v>
       </c>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="10" t="s">
         <v>106</v>
       </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="10" t="s">
         <v>107</v>
       </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
